--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/PA1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennacuti/PycharmProjects/cs151-pa1-Jennacuti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0D32F8-6D7A-7B45-9670-B8699C8948C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727151DE-6F81-6B47-8F51-2FC4705E8BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67920" windowHeight="28300" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,9 +34,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>You need to create your own tests</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+  <si>
+    <t>Welcome message is displayed</t>
+  </si>
+  <si>
+    <t>Run the game</t>
+  </si>
+  <si>
+    <t>"Welcome to the Adventure Game!"</t>
+  </si>
+  <si>
+    <t>Player name is captured</t>
+  </si>
+  <si>
+    <t>Valid path selection (Easy)</t>
+  </si>
+  <si>
+    <t>Select "1" for Easy</t>
+  </si>
+  <si>
+    <t>Valid path selection (Medium)</t>
+  </si>
+  <si>
+    <t>Select "2" for Medium</t>
+  </si>
+  <si>
+    <t>Valid path selection (Hard)</t>
+  </si>
+  <si>
+    <t>Select "3" for Hard</t>
+  </si>
+  <si>
+    <t>Invalid path selection</t>
+  </si>
+  <si>
+    <t>Enter invalid input "4"</t>
+  </si>
+  <si>
+    <t>"Invalid choice. Please select 1, 2, or 3."</t>
+  </si>
+  <si>
+    <t>Monster encounter - Fight and win</t>
+  </si>
+  <si>
+    <t>Select "fight", monster defeat logic returns true</t>
+  </si>
+  <si>
+    <t>Monster encounter - Fight and lose</t>
+  </si>
+  <si>
+    <t>Select "fight", monster defeat logic returns false</t>
+  </si>
+  <si>
+    <t>Monster encounter - Run</t>
+  </si>
+  <si>
+    <t>Select "run"</t>
+  </si>
+  <si>
+    <t>Monster encounter - Invalid input</t>
+  </si>
+  <si>
+    <t>Enter invalid input during encounter</t>
+  </si>
+  <si>
+    <t>"Invalid choice, the monster attacks while you're confused!"</t>
+  </si>
+  <si>
+    <t>River crossing (shallow)</t>
+  </si>
+  <si>
+    <t>Enter river depth "1.5"</t>
+  </si>
+  <si>
+    <t>"The river is shallow. You cross safely."</t>
+  </si>
+  <si>
+    <t>River crossing (moderate)</t>
+  </si>
+  <si>
+    <t>Enter river depth "3.5"</t>
+  </si>
+  <si>
+    <t>"The river is moderately deep. You need to find or build a raft to cross."</t>
+  </si>
+  <si>
+    <t>River crossing (deep)</t>
+  </si>
+  <si>
+    <t>Enter river depth "5.0"</t>
+  </si>
+  <si>
+    <t>"The river is too deep. You must find another way around."</t>
+  </si>
+  <si>
+    <t>Treasure chest - Small reward</t>
+  </si>
+  <si>
+    <t>Enter number "2"</t>
+  </si>
+  <si>
+    <t>"You receive a small reward: iron."</t>
+  </si>
+  <si>
+    <t>Treasure chest - Medium reward</t>
+  </si>
+  <si>
+    <t>Enter number "7"</t>
+  </si>
+  <si>
+    <t>"You receive a medium reward: gold."</t>
+  </si>
+  <si>
+    <t>Treasure chest - Large reward</t>
+  </si>
+  <si>
+    <t>Enter number "12"</t>
+  </si>
+  <si>
+    <t>"You receive a large reward: diamond."</t>
+  </si>
+  <si>
+    <t>Activity choice - Mining</t>
+  </si>
+  <si>
+    <t>Select "mining"</t>
+  </si>
+  <si>
+    <t>"You collect 10 gold."</t>
+  </si>
+  <si>
+    <t>Activity choice - Hunting</t>
+  </si>
+  <si>
+    <t>Select "hunting"</t>
+  </si>
+  <si>
+    <t>"You collect 5 steaks."</t>
+  </si>
+  <si>
+    <t>Activity choice - Fishing</t>
+  </si>
+  <si>
+    <t>Select "fishing"</t>
+  </si>
+  <si>
+    <t>"You collect 5 raw salmon."</t>
+  </si>
+  <si>
+    <t>Activity choice - Invalid input</t>
+  </si>
+  <si>
+    <t>Enter invalid activity</t>
+  </si>
+  <si>
+    <t>"Invalid activity choice."</t>
+  </si>
+  <si>
+    <t>End game prompt</t>
+  </si>
+  <si>
+    <t>Select "yes" to play again</t>
+  </si>
+  <si>
+    <t>Game restarts from the beginning</t>
+  </si>
+  <si>
+    <t>Select "no" to exit</t>
+  </si>
+  <si>
+    <t>"Thank you for playing!"</t>
+  </si>
+  <si>
+    <t>Enter player name as "Jenna"</t>
+  </si>
+  <si>
+    <t>"Please enter your name: Jenna"</t>
+  </si>
+  <si>
+    <t>"Well done, Jenna! You defeated the monster!"</t>
+  </si>
+  <si>
+    <t>"You ran away safely, Jenna."</t>
+  </si>
+  <si>
+    <t>"Jenna, you chose the easy path. It's a calm, peaceful trail with no monsters in sight."</t>
+  </si>
+  <si>
+    <t>"Jenna, you chose the medium path. The journey is challenging but manageable. No monsters here."</t>
+  </si>
+  <si>
+    <t>"Jenna, you chose the hard path. Be careful, Alex. You may encounter monsters along the way!"</t>
+  </si>
+  <si>
+    <t>"Sadly, the monster defeated you, Jenna."</t>
   </si>
 </sst>
 </file>
@@ -72,11 +264,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,9 +284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +324,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -241,7 +430,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,27 +580,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6E1F2-B43E-D343-BB9B-DE90F40B65C5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>